--- a/biology/Zoologie/Caurale_soleil/Caurale_soleil.xlsx
+++ b/biology/Zoologie/Caurale_soleil/Caurale_soleil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurypyga helias
 Le Caurale soleil (Eurypyga helias) est une espèce d'oiseaux de la famille des Eurypygidae, dont il est le seul représentant.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de taille moyenne (43 à 48 cm de longueur) présente l'aspect d'un héron au plumage gris bleuté joliment dessiné avec un long bec et un long cou. Ouvertes, notamment lors de bains de soleil, les ailes montrent de magnifiques marques or, noires et marron.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Amérique centrale et le tiers nord-ouest de l'Amérique du Sud.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente surtout les étangs et les cours d'eau rapides et rocailleux dans les forêts tropicales et subtropicales humides.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de petits amphibiens, de crustacés et d'insectes qu'il capture en marchant de manière assidue à travers les cailloux.
 			au Mato Grosso
